--- a/List of problems.xlsx
+++ b/List of problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SanjanaKoirala\Desktop\Learning\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849D59FF-CB76-4E4F-9C39-4146A9C69067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3DC48E-E265-41F2-A139-9A0B342EFC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Day</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>Retrieve a list of employees and their managers' names using a self-join.</t>
+  </si>
+  <si>
+    <t>Retrieve all employees and order them by their hire date.</t>
+  </si>
+  <si>
+    <t>Retrieve departments where the average salary is greater than $70,000.</t>
+  </si>
+  <si>
+    <t>Find the average salary of employees in each department.</t>
+  </si>
+  <si>
+    <t>Count the number of employees in each department.</t>
+  </si>
+  <si>
+    <t>Retrieve all employees who do not have a manager assigned (using LEFT JOIN).</t>
   </si>
 </sst>
 </file>
@@ -672,7 +687,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,7 +791,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -784,7 +801,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -792,7 +811,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -800,7 +821,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -808,7 +831,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
